--- a/log/log_201508030230_龚敏.xlsx
+++ b/log/log_201508030230_龚敏.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="15870" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>日期</t>
   </si>
@@ -138,6 +138,33 @@
   </si>
   <si>
     <t>1、整理自己项目里的模块</t>
+  </si>
+  <si>
+    <t>1.写出service中的准备填充数据的数据表</t>
+  </si>
+  <si>
+    <t>1、写的service测试写自己的测试类及方法</t>
+  </si>
+  <si>
+    <t>1.写出的ervice测试写自己的测试类及方法</t>
+  </si>
+  <si>
+    <t>1.测试service类，往数据库填充数据</t>
+  </si>
+  <si>
+    <t>20186/8</t>
+  </si>
+  <si>
+    <t>1.写出web类中的controller类</t>
+  </si>
+  <si>
+    <t>1.写出web类中的js页面</t>
+  </si>
+  <si>
+    <t>1.测试web类，调整页面</t>
+  </si>
+  <si>
+    <t>1.整理项目，上传github</t>
   </si>
   <si>
     <t>周次</t>
@@ -201,6 +228,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -209,7 +251,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,15 +273,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,7 +290,68 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,91 +364,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -347,49 +374,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,19 +512,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,109 +554,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,10 +570,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -576,6 +601,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -595,7 +631,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,15 +647,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,10 +671,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,133 +683,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1122,10 +1149,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1133,7 +1160,8 @@
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="36.625" customWidth="1"/>
-    <col min="4" max="5" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="39.125" customWidth="1"/>
+    <col min="5" max="5" width="33.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1458,6 +1486,146 @@
         <v>37</v>
       </c>
       <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3">
+        <v>43252</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3">
+        <v>43254</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3">
+        <v>43257</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="5">
+        <v>43263</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="5">
+        <v>43267</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="5">
+        <v>43272</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="5">
+        <v>43274</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="5">
+        <v>43275</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="5">
+        <v>43277</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1484,13 +1652,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -1501,13 +1669,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" ht="89" customHeight="1" spans="1:4">
@@ -1515,13 +1683,13 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" ht="96" customHeight="1" spans="1:4">
@@ -1529,10 +1697,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -1541,10 +1709,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2"/>
     </row>

--- a/log/log_201508030230_龚敏.xlsx
+++ b/log/log_201508030230_龚敏.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15870" windowHeight="8370"/>
+    <workbookView windowWidth="6435" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>日期</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>1.测试web类，调整页面</t>
+  </si>
+  <si>
+    <t>19:20-21:20</t>
   </si>
   <si>
     <t>1.整理项目，上传github</t>
@@ -207,10 +210,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -221,8 +224,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,24 +276,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,7 +339,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,31 +354,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,51 +367,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -374,187 +377,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,6 +568,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -577,11 +615,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,17 +641,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,46 +668,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -683,133 +686,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1151,8 +1154,8 @@
   <sheetPr/>
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1618,13 +1621,13 @@
         <v>43277</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1652,13 +1655,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -1669,13 +1672,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" ht="89" customHeight="1" spans="1:4">
@@ -1683,13 +1686,13 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" ht="96" customHeight="1" spans="1:4">
@@ -1697,10 +1700,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -1709,10 +1712,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2"/>
     </row>
